--- a/static/excel/templates/summarysheet_template.xlsx
+++ b/static/excel/templates/summarysheet_template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58E5558-A6AB-461B-B37C-983E92DC34D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CA278-72BD-4A6A-8746-76FEC2FAF953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Matric No.</t>
   </si>
@@ -46,18 +46,119 @@
     <t>CGPA</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>QP2</t>
+  </si>
+  <si>
+    <t>CU2</t>
+  </si>
+  <si>
+    <t>CU3</t>
+  </si>
+  <si>
+    <t>CU4</t>
+  </si>
+  <si>
+    <t>CU5</t>
+  </si>
+  <si>
+    <t>CU6</t>
+  </si>
+  <si>
+    <t>CU7</t>
+  </si>
+  <si>
+    <t>QP3</t>
+  </si>
+  <si>
+    <t>QP4</t>
+  </si>
+  <si>
+    <t>QP5</t>
+  </si>
+  <si>
+    <t>QP6</t>
+  </si>
+  <si>
+    <t>QP7</t>
+  </si>
+  <si>
+    <t>QP1</t>
+  </si>
+  <si>
+    <t>CU1</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>YEAR I</t>
+  </si>
+  <si>
+    <t>YEAR II</t>
+  </si>
+  <si>
+    <t>YEAR III</t>
+  </si>
+  <si>
+    <t>YEAR IV</t>
+  </si>
+  <si>
+    <t>YEAR V</t>
+  </si>
+  <si>
+    <t>YEAR VI</t>
+  </si>
+  <si>
+    <t>YEAR VII</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>Overall Summary:</t>
+  </si>
+  <si>
+    <t>2nd Class Lower:</t>
+  </si>
+  <si>
+    <t>3rd Class:</t>
+  </si>
+  <si>
+    <t>Pass:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Max TCU:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -67,9 +168,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -88,21 +200,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="GPAStyle" xfId="1" xr:uid="{598DCCA2-33D8-4C15-9939-EE9625C09B9F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Number Style" xfId="2" xr:uid="{1E6CCB1E-C922-410A-B874-9E31AC0A2274}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Semester Style" pivot="0" count="3" xr9:uid="{92F01980-9E2B-41E3-A488-617C17121A73}">
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="totalRow" dxfId="26"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -115,16 +532,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}" name="SummaryTable" displayName="SummaryTable" ref="A1:E3" totalsRowCount="1">
-  <autoFilter ref="A1:E2" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{710D6CAC-E468-4D05-A423-33FA95329E96}" name="Matric No." totalsRowLabel="Average"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}" name="SummaryTable" displayName="SummaryTable" ref="A7:T8">
+  <autoFilter ref="A7:T8" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:T8">
+    <sortCondition descending="1" ref="S7:S8"/>
+  </sortState>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{710D6CAC-E468-4D05-A423-33FA95329E96}" name="Matric No." totalsRowLabel="Max"/>
     <tableColumn id="5" xr3:uid="{2C08B502-4B49-4BB8-9625-6E2B5C745250}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{34A22D75-EE7F-40DB-875D-33CCEF3A60D6}" name="TCU"/>
-    <tableColumn id="3" xr3:uid="{284CAE8F-75FF-4977-8EB0-92BEE5C42085}" name="TQP"/>
-    <tableColumn id="4" xr3:uid="{12D26180-D890-4F1C-9FFB-00A2E34D19B5}" name="CGPA" totalsRowFunction="average" dataCellStyle="GPAStyle" totalsRowCellStyle="GPAStyle"/>
+    <tableColumn id="8" xr3:uid="{D5F0A91C-07BA-4CB8-AB21-71AD3A728D83}" name="QP1" totalsRowFunction="max" totalsRowDxfId="18" dataCellStyle="Number Style"/>
+    <tableColumn id="9" xr3:uid="{5204B242-A57C-4CE6-A269-1EEEE36EE15F}" name="CU1" totalsRowFunction="max" totalsRowDxfId="17" dataCellStyle="Number Style"/>
+    <tableColumn id="7" xr3:uid="{07804743-89D7-473F-BABC-E87263AF17A8}" name="QP2" totalsRowFunction="max" totalsRowDxfId="16" dataCellStyle="Number Style"/>
+    <tableColumn id="6" xr3:uid="{6A881AB3-08C5-4E99-A410-C51A8414D6EE}" name="CU2" totalsRowFunction="max" totalsRowDxfId="15" dataCellStyle="Number Style"/>
+    <tableColumn id="10" xr3:uid="{74E222AD-C28C-46A6-BA57-68D3E7B886B3}" name="QP3" totalsRowFunction="max" totalsRowDxfId="14" dataCellStyle="Number Style"/>
+    <tableColumn id="11" xr3:uid="{04AAA8E5-0836-4EE5-B7F1-F0E45CCA999F}" name="CU3" totalsRowFunction="max" totalsRowDxfId="13" dataCellStyle="Number Style"/>
+    <tableColumn id="12" xr3:uid="{1D522166-EB32-4CDF-95A6-6922EE582131}" name="QP4" totalsRowFunction="max" totalsRowDxfId="12" dataCellStyle="Number Style"/>
+    <tableColumn id="13" xr3:uid="{3FF9F0B9-4C66-48AE-92F5-8E95E01078E6}" name="CU4" totalsRowFunction="max" totalsRowDxfId="11" dataCellStyle="Number Style"/>
+    <tableColumn id="14" xr3:uid="{5F8E3635-B3BC-467F-B4F7-D0A09C6FEED1}" name="QP5" totalsRowFunction="max" totalsRowDxfId="10" dataCellStyle="Number Style"/>
+    <tableColumn id="15" xr3:uid="{20EF5D98-08DD-4ED8-8653-77A304D2B3CC}" name="CU5" totalsRowFunction="max" totalsRowDxfId="9" dataCellStyle="Number Style"/>
+    <tableColumn id="18" xr3:uid="{D75E5019-06FC-48D0-B4C0-3B29E66740C0}" name="QP6" totalsRowFunction="max" totalsRowDxfId="8" dataCellStyle="Number Style"/>
+    <tableColumn id="19" xr3:uid="{33A6AC78-E230-4B01-9B0F-377AD99CE1E7}" name="CU6" totalsRowFunction="max" totalsRowDxfId="7" dataCellStyle="Number Style"/>
+    <tableColumn id="16" xr3:uid="{67694929-7983-4AFB-9433-C823426CA72A}" name="QP7" totalsRowFunction="max" totalsRowDxfId="6" dataCellStyle="Number Style"/>
+    <tableColumn id="17" xr3:uid="{6E0E33D8-EDC4-4833-9680-E48C57D13966}" name="CU7" totalsRowFunction="max" totalsRowDxfId="5" dataCellStyle="Number Style"/>
+    <tableColumn id="3" xr3:uid="{284CAE8F-75FF-4977-8EB0-92BEE5C42085}" name="TQP" totalsRowFunction="max" totalsRowDxfId="4" dataCellStyle="Number Style">
+      <calculatedColumnFormula>SummaryTable[[#This Row],[QP1]]+SummaryTable[[#This Row],[QP2]]+SummaryTable[[#This Row],[QP3]]+SummaryTable[[#This Row],[QP4]]+SummaryTable[[#This Row],[QP5]]+SummaryTable[[#This Row],[QP6]]+SummaryTable[[#This Row],[QP7]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{34A22D75-EE7F-40DB-875D-33CCEF3A60D6}" name="TCU" totalsRowFunction="max" totalsRowDxfId="3" dataCellStyle="Number Style">
+      <calculatedColumnFormula>SummaryTable[[#This Row],[CU1]]+SummaryTable[[#This Row],[CU2]]+SummaryTable[[#This Row],[CU3]]+SummaryTable[[#This Row],[CU4]]+SummaryTable[[#This Row],[CU5]]+SummaryTable[[#This Row],[CU6]]+SummaryTable[[#This Row],[CU7]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{12D26180-D890-4F1C-9FFB-00A2E34D19B5}" name="CGPA" totalsRowFunction="max" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="GPAStyle">
+      <calculatedColumnFormula>IFERROR(SummaryTable[[#This Row],[TQP]]/SummaryTable[[#This Row],[TCU]],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{B86400EE-D3E2-4990-992B-21AB818397B6}" name="CLASS" dataDxfId="0" dataCellStyle="Number Style">
+      <calculatedColumnFormula>IF(SummaryTable[[#This Row],[CGPA]]&gt;4.49,"1st",IF(SummaryTable[[#This Row],[CGPA]]&gt;3.49,"2.1",IF(SummaryTable[[#This Row],[CGPA]]&gt;2.39,"2.2",IF(SummaryTable[[#This Row],[CGPA]]&gt;1.49,"3rd","Pass"))))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Semester Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -391,50 +834,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.953125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="16" width="4.9140625" customWidth="1"/>
+    <col min="17" max="20" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+    <row r="3" spans="1:21" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13">
+        <f>MAX(SummaryTable[TCU])</f>
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="A4" s="8" t="str">
+        <f>_xlfn.CONCAT("First Class:  ", COUNTIF(SummaryTable[CLASS],"=1st"))</f>
+        <v>First Class:  0</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f>_xlfn.CONCAT("2nd Class Upper:  ", COUNTIF(SummaryTable[CLASS],"=2.1"))</f>
+        <v>2nd Class Upper:  0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="10">
+        <f>COUNTIF(SummaryTable[CLASS],"=2.2")</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="10">
+        <f>COUNTIF(SummaryTable[CLASS],"=3rd")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="10">
+        <f>COUNTIF(SummaryTable[CLASS],"=Pass")</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="12">
+        <f>COUNT(SummaryTable[CGPA])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="C6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="T7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E2" s="1"/>
+    <row r="8" spans="1:21" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14">
+        <f>SummaryTable[[#This Row],[QP1]]+SummaryTable[[#This Row],[QP2]]+SummaryTable[[#This Row],[QP3]]+SummaryTable[[#This Row],[QP4]]+SummaryTable[[#This Row],[QP5]]+SummaryTable[[#This Row],[QP6]]+SummaryTable[[#This Row],[QP7]]</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <f>SummaryTable[[#This Row],[CU1]]+SummaryTable[[#This Row],[CU2]]+SummaryTable[[#This Row],[CU3]]+SummaryTable[[#This Row],[CU4]]+SummaryTable[[#This Row],[CU5]]+SummaryTable[[#This Row],[CU6]]+SummaryTable[[#This Row],[CU7]]</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="15">
+        <f>IFERROR(SummaryTable[[#This Row],[TQP]]/SummaryTable[[#This Row],[TCU]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="14" t="str">
+        <f>IF(SummaryTable[[#This Row],[CGPA]]&gt;4.49,"1st",IF(SummaryTable[[#This Row],[CGPA]]&gt;3.49,"2.1",IF(SummaryTable[[#This Row],[CGPA]]&gt;2.39,"2.2",IF(SummaryTable[[#This Row],[CGPA]]&gt;1.49,"3rd","Pass"))))</f>
+        <v>Pass</v>
+      </c>
+      <c r="U8" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="e">
-        <f>SUBTOTAL(101,SummaryTable[CGPA])</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="G9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="U10" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="between">
+      <formula>-0.5</formula>
+      <formula>$F$3 - 0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:S1048576">
+    <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"3rd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"2.2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"2.1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"1st"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/static/excel/templates/summarysheet_template.xlsx
+++ b/static/excel/templates/summarysheet_template.xlsx
@@ -2,19 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CA278-72BD-4A6A-8746-76FEC2FAF953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B07EE-72EA-41E1-B9F5-BB3F3C90B864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Degree Result" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Degree Result'!$1:$1</definedName>
+    <definedName name="TCU_ROW" localSheetId="0">'Overall Summary'!$S$1</definedName>
+    <definedName name="TQP_ROW">'Degree Result'!$R$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Matric No.</t>
   </si>
@@ -137,25 +143,211 @@
   </si>
   <si>
     <t>Max TCU:</t>
+  </si>
+  <si>
+    <t>QP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  QP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   QP   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    QP    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     QP     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      QP      </t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CU  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CU   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CU    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     CU     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CU      </t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PORT HARCOURT</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF MECHANICAL ENGINEERING (MECHANICAL ENGINEERING PROGRAMME)</t>
+  </si>
+  <si>
+    <t>MODE OF STUDY: FULL-TIME</t>
+  </si>
+  <si>
+    <t>FACULTY OF ENGINEERING</t>
+  </si>
+  <si>
+    <r>
+      <t>Head of Department:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                     </t>
+    </r>
+  </si>
+  <si>
+    <t>Dean:</t>
+  </si>
+  <si>
+    <t>External Examiner:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dr. A. Big-Alabo                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prof. R. Uhunwangho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Prof. B. T. Lebele-Alawa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sign:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">……………………………..                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:……………………………..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:……………………………….........</t>
+    </r>
+  </si>
+  <si>
+    <t>MASTER MARK SHEET FOR THE AWARD OF BACHELOR OF ENGINEERING (B. ENG.) DEGREE</t>
+  </si>
+  <si>
+    <t>SESSION: 20__/20__</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -183,6 +375,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +418,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -277,65 +503,324 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="ClassStyle" xfId="4" xr:uid="{48CDF681-3C37-4934-92E1-8107ED7DF40A}"/>
     <cellStyle name="GPAStyle" xfId="1" xr:uid="{598DCCA2-33D8-4C15-9939-EE9625C09B9F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{D8FA0A76-9D93-4254-87F1-C4BCB01B091B}"/>
     <cellStyle name="Number Style" xfId="2" xr:uid="{1E6CCB1E-C922-410A-B874-9E31AC0A2274}"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -371,105 +856,316 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,12 +1203,156 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Semester Style" pivot="0" count="3" xr9:uid="{92F01980-9E2B-41E3-A488-617C17121A73}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="totalRow" dxfId="26"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Semester Style" pivot="0" count="4" xr9:uid="{92F01980-9E2B-41E3-A488-617C17121A73}">
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+    </tableStyle>
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{F3B52532-6567-4D06-B143-F5517C4B2318}">
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -531,43 +1371,141 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554286</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987E7EE2-395A-4359-8EF3-2F540050A4A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322036" y="36288"/>
+          <a:ext cx="554286" cy="566962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}" name="SummaryTable" displayName="SummaryTable" ref="A7:T8">
-  <autoFilter ref="A7:T8" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:T8">
-    <sortCondition descending="1" ref="S7:S8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}" name="SummaryTable" displayName="SummaryTable" ref="A7:U8">
+  <autoFilter ref="A7:U8" xr:uid="{0767D862-8CCF-431A-9754-E5E349291777}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:U8">
+    <sortCondition descending="1" ref="T7:T8"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="21">
+    <tableColumn id="21" xr3:uid="{ADB51665-ED5B-45A7-94A6-0DCA861E099D}" name="S/N" dataDxfId="51" totalsRowDxfId="52" dataCellStyle="Number Style">
+      <calculatedColumnFormula>IF(SummaryTable[[#This Row],[TCU]]="", "",COUNT(TCU_ROW:SummaryTable[[#This Row],[TCU]]))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="1" xr3:uid="{710D6CAC-E468-4D05-A423-33FA95329E96}" name="Matric No." totalsRowLabel="Max"/>
     <tableColumn id="5" xr3:uid="{2C08B502-4B49-4BB8-9625-6E2B5C745250}" name="Name"/>
-    <tableColumn id="8" xr3:uid="{D5F0A91C-07BA-4CB8-AB21-71AD3A728D83}" name="QP1" totalsRowFunction="max" totalsRowDxfId="18" dataCellStyle="Number Style"/>
-    <tableColumn id="9" xr3:uid="{5204B242-A57C-4CE6-A269-1EEEE36EE15F}" name="CU1" totalsRowFunction="max" totalsRowDxfId="17" dataCellStyle="Number Style"/>
-    <tableColumn id="7" xr3:uid="{07804743-89D7-473F-BABC-E87263AF17A8}" name="QP2" totalsRowFunction="max" totalsRowDxfId="16" dataCellStyle="Number Style"/>
-    <tableColumn id="6" xr3:uid="{6A881AB3-08C5-4E99-A410-C51A8414D6EE}" name="CU2" totalsRowFunction="max" totalsRowDxfId="15" dataCellStyle="Number Style"/>
-    <tableColumn id="10" xr3:uid="{74E222AD-C28C-46A6-BA57-68D3E7B886B3}" name="QP3" totalsRowFunction="max" totalsRowDxfId="14" dataCellStyle="Number Style"/>
-    <tableColumn id="11" xr3:uid="{04AAA8E5-0836-4EE5-B7F1-F0E45CCA999F}" name="CU3" totalsRowFunction="max" totalsRowDxfId="13" dataCellStyle="Number Style"/>
-    <tableColumn id="12" xr3:uid="{1D522166-EB32-4CDF-95A6-6922EE582131}" name="QP4" totalsRowFunction="max" totalsRowDxfId="12" dataCellStyle="Number Style"/>
-    <tableColumn id="13" xr3:uid="{3FF9F0B9-4C66-48AE-92F5-8E95E01078E6}" name="CU4" totalsRowFunction="max" totalsRowDxfId="11" dataCellStyle="Number Style"/>
-    <tableColumn id="14" xr3:uid="{5F8E3635-B3BC-467F-B4F7-D0A09C6FEED1}" name="QP5" totalsRowFunction="max" totalsRowDxfId="10" dataCellStyle="Number Style"/>
-    <tableColumn id="15" xr3:uid="{20EF5D98-08DD-4ED8-8653-77A304D2B3CC}" name="CU5" totalsRowFunction="max" totalsRowDxfId="9" dataCellStyle="Number Style"/>
-    <tableColumn id="18" xr3:uid="{D75E5019-06FC-48D0-B4C0-3B29E66740C0}" name="QP6" totalsRowFunction="max" totalsRowDxfId="8" dataCellStyle="Number Style"/>
-    <tableColumn id="19" xr3:uid="{33A6AC78-E230-4B01-9B0F-377AD99CE1E7}" name="CU6" totalsRowFunction="max" totalsRowDxfId="7" dataCellStyle="Number Style"/>
-    <tableColumn id="16" xr3:uid="{67694929-7983-4AFB-9433-C823426CA72A}" name="QP7" totalsRowFunction="max" totalsRowDxfId="6" dataCellStyle="Number Style"/>
-    <tableColumn id="17" xr3:uid="{6E0E33D8-EDC4-4833-9680-E48C57D13966}" name="CU7" totalsRowFunction="max" totalsRowDxfId="5" dataCellStyle="Number Style"/>
-    <tableColumn id="3" xr3:uid="{284CAE8F-75FF-4977-8EB0-92BEE5C42085}" name="TQP" totalsRowFunction="max" totalsRowDxfId="4" dataCellStyle="Number Style">
+    <tableColumn id="8" xr3:uid="{D5F0A91C-07BA-4CB8-AB21-71AD3A728D83}" name="QP1" totalsRowFunction="max" totalsRowDxfId="73" dataCellStyle="Number Style"/>
+    <tableColumn id="9" xr3:uid="{5204B242-A57C-4CE6-A269-1EEEE36EE15F}" name="CU1" totalsRowFunction="max" totalsRowDxfId="72" dataCellStyle="Number Style"/>
+    <tableColumn id="7" xr3:uid="{07804743-89D7-473F-BABC-E87263AF17A8}" name="QP2" totalsRowFunction="max" totalsRowDxfId="71" dataCellStyle="Number Style"/>
+    <tableColumn id="6" xr3:uid="{6A881AB3-08C5-4E99-A410-C51A8414D6EE}" name="CU2" totalsRowFunction="max" totalsRowDxfId="70" dataCellStyle="Number Style"/>
+    <tableColumn id="10" xr3:uid="{74E222AD-C28C-46A6-BA57-68D3E7B886B3}" name="QP3" totalsRowFunction="max" totalsRowDxfId="69" dataCellStyle="Number Style"/>
+    <tableColumn id="11" xr3:uid="{04AAA8E5-0836-4EE5-B7F1-F0E45CCA999F}" name="CU3" totalsRowFunction="max" totalsRowDxfId="68" dataCellStyle="Number Style"/>
+    <tableColumn id="12" xr3:uid="{1D522166-EB32-4CDF-95A6-6922EE582131}" name="QP4" totalsRowFunction="max" totalsRowDxfId="67" dataCellStyle="Number Style"/>
+    <tableColumn id="13" xr3:uid="{3FF9F0B9-4C66-48AE-92F5-8E95E01078E6}" name="CU4" totalsRowFunction="max" totalsRowDxfId="66" dataCellStyle="Number Style"/>
+    <tableColumn id="14" xr3:uid="{5F8E3635-B3BC-467F-B4F7-D0A09C6FEED1}" name="QP5" totalsRowFunction="max" totalsRowDxfId="65" dataCellStyle="Number Style"/>
+    <tableColumn id="15" xr3:uid="{20EF5D98-08DD-4ED8-8653-77A304D2B3CC}" name="CU5" totalsRowFunction="max" totalsRowDxfId="64" dataCellStyle="Number Style"/>
+    <tableColumn id="18" xr3:uid="{D75E5019-06FC-48D0-B4C0-3B29E66740C0}" name="QP6" totalsRowFunction="max" totalsRowDxfId="63" dataCellStyle="Number Style"/>
+    <tableColumn id="19" xr3:uid="{33A6AC78-E230-4B01-9B0F-377AD99CE1E7}" name="CU6" totalsRowFunction="max" totalsRowDxfId="62" dataCellStyle="Number Style"/>
+    <tableColumn id="16" xr3:uid="{67694929-7983-4AFB-9433-C823426CA72A}" name="QP7" totalsRowFunction="max" totalsRowDxfId="61" dataCellStyle="Number Style"/>
+    <tableColumn id="17" xr3:uid="{6E0E33D8-EDC4-4833-9680-E48C57D13966}" name="CU7" totalsRowFunction="max" totalsRowDxfId="60" dataCellStyle="Number Style"/>
+    <tableColumn id="3" xr3:uid="{284CAE8F-75FF-4977-8EB0-92BEE5C42085}" name="TQP" totalsRowFunction="max" totalsRowDxfId="59" dataCellStyle="Number Style">
       <calculatedColumnFormula>SummaryTable[[#This Row],[QP1]]+SummaryTable[[#This Row],[QP2]]+SummaryTable[[#This Row],[QP3]]+SummaryTable[[#This Row],[QP4]]+SummaryTable[[#This Row],[QP5]]+SummaryTable[[#This Row],[QP6]]+SummaryTable[[#This Row],[QP7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{34A22D75-EE7F-40DB-875D-33CCEF3A60D6}" name="TCU" totalsRowFunction="max" totalsRowDxfId="3" dataCellStyle="Number Style">
+    <tableColumn id="2" xr3:uid="{34A22D75-EE7F-40DB-875D-33CCEF3A60D6}" name="TCU" totalsRowFunction="max" totalsRowDxfId="58" dataCellStyle="Number Style">
       <calculatedColumnFormula>SummaryTable[[#This Row],[CU1]]+SummaryTable[[#This Row],[CU2]]+SummaryTable[[#This Row],[CU3]]+SummaryTable[[#This Row],[CU4]]+SummaryTable[[#This Row],[CU5]]+SummaryTable[[#This Row],[CU6]]+SummaryTable[[#This Row],[CU7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{12D26180-D890-4F1C-9FFB-00A2E34D19B5}" name="CGPA" totalsRowFunction="max" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="GPAStyle">
+    <tableColumn id="4" xr3:uid="{12D26180-D890-4F1C-9FFB-00A2E34D19B5}" name="CGPA" totalsRowFunction="max" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="GPAStyle">
       <calculatedColumnFormula>IFERROR(SummaryTable[[#This Row],[TQP]]/SummaryTable[[#This Row],[TCU]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{B86400EE-D3E2-4990-992B-21AB818397B6}" name="CLASS" dataDxfId="0" dataCellStyle="Number Style">
+    <tableColumn id="20" xr3:uid="{B86400EE-D3E2-4990-992B-21AB818397B6}" name="CLASS" dataDxfId="55" dataCellStyle="Number Style">
       <calculatedColumnFormula>IF(SummaryTable[[#This Row],[CGPA]]&gt;4.49,"1st",IF(SummaryTable[[#This Row],[CGPA]]&gt;3.49,"2.1",IF(SummaryTable[[#This Row],[CGPA]]&gt;2.39,"2.2",IF(SummaryTable[[#This Row],[CGPA]]&gt;1.49,"3rd","Pass"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Semester Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DD87B3AB-B611-4389-87B4-117250CBF73B}" name="DegreeTable" displayName="DegreeTable" ref="A11:U12" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44" headerRowBorderDxfId="7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:T12">
+    <sortCondition descending="1" ref="S11:S12"/>
+  </sortState>
+  <tableColumns count="21">
+    <tableColumn id="23" xr3:uid="{3422CEE7-542F-4606-A1CC-183FF75F4BA5}" name="S/N" dataDxfId="8" dataCellStyle="Number Style">
+      <calculatedColumnFormula>IF(DegreeTable[[#This Row],[Name]]="", "",COUNT(TQP_ROW:DegreeTable[[#This Row],[TQP]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{02845873-2111-4F0E-855C-96E892312911}" name="Matric No." totalsRowLabel="Max" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{199B6676-52D5-493F-9FFF-3699C6C8C947}" name="Name" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{0D0E4684-0995-4DEF-ACB6-8648D3F82EDC}" name="QP" totalsRowFunction="max" dataDxfId="42" totalsRowDxfId="43" dataCellStyle="Number Style"/>
+    <tableColumn id="9" xr3:uid="{8D1B1E20-EA63-415B-8CD9-04893B2D72FB}" name="CU" totalsRowFunction="max" dataDxfId="40" totalsRowDxfId="41" dataCellStyle="Number Style"/>
+    <tableColumn id="7" xr3:uid="{E3223D13-ED4C-405E-9713-2FD05E3F31D0}" name=" QP " totalsRowFunction="max" dataDxfId="38" totalsRowDxfId="39" dataCellStyle="Number Style"/>
+    <tableColumn id="6" xr3:uid="{3489DBCF-1B38-4FB5-B01C-66C417D4DE5A}" name=" CU " totalsRowFunction="max" dataDxfId="36" totalsRowDxfId="37" dataCellStyle="Number Style"/>
+    <tableColumn id="10" xr3:uid="{B8B42F79-6152-4F56-BB62-1154A33091D5}" name="  QP  " totalsRowFunction="max" dataDxfId="34" totalsRowDxfId="35" dataCellStyle="Number Style"/>
+    <tableColumn id="11" xr3:uid="{4B806845-BC5A-4E1E-8502-B0155B49077C}" name="  CU  " totalsRowFunction="max" dataDxfId="32" totalsRowDxfId="33" dataCellStyle="Number Style"/>
+    <tableColumn id="12" xr3:uid="{EBD1AECA-A627-42A8-8801-0EE0DBD4A275}" name="   QP   " totalsRowFunction="max" dataDxfId="30" totalsRowDxfId="31" dataCellStyle="Number Style"/>
+    <tableColumn id="13" xr3:uid="{7552F0D6-A0C9-41F6-961C-900BE21C171F}" name="   CU   " totalsRowFunction="max" dataDxfId="28" totalsRowDxfId="29" dataCellStyle="Number Style"/>
+    <tableColumn id="14" xr3:uid="{B1F76EFF-4E66-4F4E-A70C-AECB4C931F9D}" name="    QP    " totalsRowFunction="max" dataDxfId="26" totalsRowDxfId="27" dataCellStyle="Number Style"/>
+    <tableColumn id="15" xr3:uid="{A58F761E-2DCA-4EB4-AB1E-C6FF0998BD38}" name="    CU    " totalsRowFunction="max" dataDxfId="24" totalsRowDxfId="25" dataCellStyle="Number Style"/>
+    <tableColumn id="18" xr3:uid="{443690B0-2C5B-4FEA-8533-EF488546160D}" name="     QP     " totalsRowFunction="max" dataDxfId="22" totalsRowDxfId="23" dataCellStyle="Number Style"/>
+    <tableColumn id="19" xr3:uid="{061629B8-8E35-4631-B805-A1F0F37371A9}" name="     CU     " totalsRowFunction="max" dataDxfId="20" totalsRowDxfId="21" dataCellStyle="Number Style"/>
+    <tableColumn id="16" xr3:uid="{7C39ACA2-28D6-47B9-B2C6-3D38BE551BBB}" name="      QP      " totalsRowFunction="max" dataDxfId="18" totalsRowDxfId="19" dataCellStyle="Number Style"/>
+    <tableColumn id="17" xr3:uid="{1F80A33A-A2B2-42AD-84ED-14FE907E5F50}" name="      CU      " totalsRowFunction="max" dataDxfId="16" totalsRowDxfId="17" dataCellStyle="Number Style"/>
+    <tableColumn id="3" xr3:uid="{263F0515-932A-4948-9DF1-4A8A2B8F549C}" name="TQP" totalsRowFunction="max" dataDxfId="14" totalsRowDxfId="15" dataCellStyle="Number Style">
+      <calculatedColumnFormula>IF(DegreeTable[[#This Row],[Name]]="", "",DegreeTable[[#This Row],[QP]]+DegreeTable[[#This Row],[ QP ]]+DegreeTable[[#This Row],[  QP  ]]+DegreeTable[[#This Row],[   QP   ]]+DegreeTable[[#This Row],[    QP    ]]+DegreeTable[[#This Row],[     QP     ]]+DegreeTable[[#This Row],[      QP      ]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{2E75AFB7-7EB3-463B-9BC2-63E811B4F515}" name="TCU" totalsRowFunction="max" dataDxfId="12" totalsRowDxfId="13" dataCellStyle="Number Style">
+      <calculatedColumnFormula>IF(DegreeTable[[#This Row],[Name]]="", "",DegreeTable[[#This Row],[CU]]+DegreeTable[[#This Row],[ CU ]]+DegreeTable[[#This Row],[  CU  ]]+DegreeTable[[#This Row],[   CU   ]]+DegreeTable[[#This Row],[    CU    ]]+DegreeTable[[#This Row],[     CU     ]]+DegreeTable[[#This Row],[      CU      ]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D7DB983F-CDF5-4C0E-BFD5-91F9189C1A37}" name="CGPA" totalsRowFunction="max" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="GPAStyle">
+      <calculatedColumnFormula>IF(DegreeTable[[#This Row],[Name]]="", "",IFERROR(DegreeTable[[#This Row],[TQP]]/DegreeTable[[#This Row],[TCU]],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{44B043F3-DDB6-48C1-AE10-F7420A7EE98B}" name="CLASS" dataDxfId="9" dataCellStyle="Number Style"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -834,287 +1772,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:U10"/>
+  <dimension ref="A3:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="16" width="4.9140625" customWidth="1"/>
-    <col min="17" max="20" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="17" width="4.9140625" customWidth="1"/>
+    <col min="18" max="21" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:23" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="A3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="10">
         <f>MAX(SummaryTable[TCU])</f>
         <v>0</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A4" s="8" t="str">
+    <row r="4" spans="1:23" ht="14.75" x14ac:dyDescent="0.75">
+      <c r="A4" s="56" t="str">
         <f>_xlfn.CONCAT("First Class:  ", COUNTIF(SummaryTable[CLASS],"=1st"))</f>
         <v>First Class:  0</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="57"/>
+      <c r="C4" s="7" t="str">
         <f>_xlfn.CONCAT("2nd Class Upper:  ", COUNTIF(SummaryTable[CLASS],"=2.1"))</f>
         <v>2nd Class Upper:  0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="10">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="8">
         <f>COUNTIF(SummaryTable[CLASS],"=2.2")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="10">
+      <c r="K4" s="15"/>
+      <c r="L4" s="8">
         <f>COUNTIF(SummaryTable[CLASS],"=3rd")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="8">
         <f>COUNTIF(SummaryTable[CLASS],"=Pass")</f>
         <v>1</v>
       </c>
-      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="12">
+      <c r="U4" s="9">
         <f>COUNT(SummaryTable[CGPA])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="18"/>
+      <c r="U6" s="16"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A8" s="30">
+        <f>IF(SummaryTable[[#This Row],[TCU]]="", "",COUNT(TCU_ROW:SummaryTable[[#This Row],[TCU]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11">
         <f>SummaryTable[[#This Row],[QP1]]+SummaryTable[[#This Row],[QP2]]+SummaryTable[[#This Row],[QP3]]+SummaryTable[[#This Row],[QP4]]+SummaryTable[[#This Row],[QP5]]+SummaryTable[[#This Row],[QP6]]+SummaryTable[[#This Row],[QP7]]</f>
         <v>0</v>
       </c>
-      <c r="R8" s="14">
+      <c r="S8" s="11">
         <f>SummaryTable[[#This Row],[CU1]]+SummaryTable[[#This Row],[CU2]]+SummaryTable[[#This Row],[CU3]]+SummaryTable[[#This Row],[CU4]]+SummaryTable[[#This Row],[CU5]]+SummaryTable[[#This Row],[CU6]]+SummaryTable[[#This Row],[CU7]]</f>
         <v>0</v>
       </c>
-      <c r="S8" s="15">
+      <c r="T8" s="12">
         <f>IFERROR(SummaryTable[[#This Row],[TQP]]/SummaryTable[[#This Row],[TCU]],0)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="14" t="str">
+      <c r="U8" s="58" t="str">
         <f>IF(SummaryTable[[#This Row],[CGPA]]&gt;4.49,"1st",IF(SummaryTable[[#This Row],[CGPA]]&gt;3.49,"2.1",IF(SummaryTable[[#This Row],[CGPA]]&gt;2.39,"2.2",IF(SummaryTable[[#This Row],[CGPA]]&gt;1.49,"3rd","Pass"))))</f>
         <v>Pass</v>
       </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="G9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="U10" s="1"/>
+      <c r="W8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
+  <mergeCells count="14">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="between">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="S1:S6 R7:S8 S9:S1048576">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="between">
       <formula>-0.5</formula>
-      <formula>$F$3 - 0.5</formula>
+      <formula>$G$3 - 0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1048576">
+  <conditionalFormatting sqref="S1:U1048576">
     <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"3rd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"2.2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"2.1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"1st"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1124,4 +2067,650 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4D894D-C980-497B-8D58-870463E3733B}">
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection sqref="A1:U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="17" width="3.83203125" customWidth="1"/>
+    <col min="18" max="21" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A7" s="40"/>
+      <c r="B7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A8" s="40"/>
+      <c r="B8" s="43" t="str">
+        <f>_xlfn.CONCAT("First Class:  ", COUNTIF(U:U,"=11"))</f>
+        <v>First Class:  0</v>
+      </c>
+      <c r="C8" s="34" t="str">
+        <f>_xlfn.CONCAT("2nd Class Upper:  ", COUNTIF(U:U,"=21"))</f>
+        <v>2nd Class Upper:  0</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36">
+        <f>COUNTIF(U:U,"=22")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36">
+        <f>COUNTIF(U:U,"=3rd")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36">
+        <f>COUNTIF(U:U,"=Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="35" t="str">
+        <f>_xlfn.CONCAT("Total: ", COUNT(R:R))</f>
+        <v>Total: 0</v>
+      </c>
+      <c r="T8" s="61"/>
+      <c r="U8" s="42"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A10" s="64"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="63"/>
+      <c r="J10" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="63"/>
+      <c r="N10" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="63"/>
+      <c r="P10" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="63"/>
+      <c r="T10" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="63"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.35" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="59" t="str">
+        <f>IF(DegreeTable[[#This Row],[Name]]="", "",COUNT(TQP_ROW:DegreeTable[[#This Row],[TQP]]))</f>
+        <v/>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="59" t="str">
+        <f>IF(DegreeTable[[#This Row],[Name]]="", "",DegreeTable[[#This Row],[QP]]+DegreeTable[[#This Row],[ QP ]]+DegreeTable[[#This Row],[  QP  ]]+DegreeTable[[#This Row],[   QP   ]]+DegreeTable[[#This Row],[    QP    ]]+DegreeTable[[#This Row],[     QP     ]]+DegreeTable[[#This Row],[      QP      ]])</f>
+        <v/>
+      </c>
+      <c r="S12" s="59" t="str">
+        <f>IF(DegreeTable[[#This Row],[Name]]="", "",DegreeTable[[#This Row],[CU]]+DegreeTable[[#This Row],[ CU ]]+DegreeTable[[#This Row],[  CU  ]]+DegreeTable[[#This Row],[   CU   ]]+DegreeTable[[#This Row],[    CU    ]]+DegreeTable[[#This Row],[     CU     ]]+DegreeTable[[#This Row],[      CU      ]])</f>
+        <v/>
+      </c>
+      <c r="T12" s="60" t="str">
+        <f>IF(DegreeTable[[#This Row],[Name]]="", "",IFERROR(DegreeTable[[#This Row],[TQP]]/DegreeTable[[#This Row],[TCU]],0))</f>
+        <v/>
+      </c>
+      <c r="U12" s="71"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A17" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A18" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A19" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A20" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>